--- a/結合テスト仕様書.xlsx
+++ b/結合テスト仕様書.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koshi\Documents\VBA_4270\"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>課題キー</t>
   </si>
@@ -112,6 +112,271 @@
     <t>顧客一覧</t>
     <rPh sb="0" eb="4">
       <t>コキャクイチラン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>顧客情報を入力して、途中でキャンセルしたらデータが登録されてないので、検索はできない</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>編集され、データが無くなる</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>顧客一覧のシートの一部のデータを削除して、検索ボタンで検索をできるか</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>データが残っているものがあるのら、検索される</t>
+    <rPh sb="4" eb="5">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>編集はされないで、元のデータになる。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>新規追加の名前とフリガナを10文字以上を入力して、登録ボタンで登録できるか</t>
+    <rPh sb="0" eb="4">
+      <t>シンキツイカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>登録はできる</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>新規追加ボタン、検索・更新・削除の検索ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="11" eb="16">
+      <t>コウシンテンサクジョ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>検索・更新・削除の編集ボタン、検索ボタン</t>
+    <rPh sb="0" eb="3">
+      <t>ケンサクテン</t>
+    </rPh>
+    <rPh sb="3" eb="8">
+      <t>コウシンテンサクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>検索・更新・削除の検索ボタン</t>
+    <rPh sb="9" eb="11">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>検索・更新・削除の検索・更新・削除ボタン</t>
+    <rPh sb="9" eb="11">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>コウシンテン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>新規追加ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>新規追加ボタンを押して編集中に一度キャンセルをして、検索・更新・削除の検索ボタンで検索ができるか</t>
+    <rPh sb="0" eb="4">
+      <t>シンキツイカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ケンサクテン</t>
+    </rPh>
+    <rPh sb="29" eb="34">
+      <t>コウシンテンサクジョ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>検索ボタンを押して、呼び出した検索されたデータを全部削除して、編集ボタンを押すと編集されるか</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>検索ボタンを押して、検索されたデータを編集中に編集ボタンを押さないで、閉じるとデータは変わるのか</t>
+    <rPh sb="10" eb="12">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ヘンシュウチュウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>重田</t>
+    <rPh sb="0" eb="2">
+      <t>シゲタ</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -495,12 +760,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -509,24 +792,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -743,20 +1008,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <tabColor rgb="FFEA9999"/>
   </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.8984375" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" customWidth="1"/>
     <col min="3" max="3" width="8.09765625" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="7.69921875" customWidth="1"/>
@@ -769,10 +1034,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
@@ -782,10 +1047,10 @@
       <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="39"/>
+      <c r="G1" s="34"/>
       <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
@@ -810,14 +1075,14 @@
       <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="41" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="32"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="12" t="s">
         <v>9</v>
       </c>
@@ -841,14 +1106,14 @@
       <c r="B3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="32"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="16" t="s">
         <v>18</v>
       </c>
@@ -867,15 +1132,23 @@
       <c r="A4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="32"/>
+      <c r="B4" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="36"/>
       <c r="G4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="23"/>
+      <c r="H4" s="23" t="s">
+        <v>44</v>
+      </c>
       <c r="I4" s="24">
         <v>44040</v>
       </c>
@@ -886,15 +1159,23 @@
       <c r="A5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="36"/>
       <c r="G5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="23"/>
+      <c r="H5" s="23" t="s">
+        <v>44</v>
+      </c>
       <c r="I5" s="24">
         <v>44040</v>
       </c>
@@ -905,15 +1186,23 @@
       <c r="A6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="32"/>
+      <c r="B6" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="36"/>
       <c r="G6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="23" t="s">
+        <v>44</v>
+      </c>
       <c r="I6" s="24">
         <v>44040</v>
       </c>
@@ -924,15 +1213,23 @@
       <c r="A7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="32"/>
+      <c r="B7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="36"/>
       <c r="G7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="23"/>
+      <c r="H7" s="23" t="s">
+        <v>44</v>
+      </c>
       <c r="I7" s="24">
         <v>44040</v>
       </c>
@@ -943,15 +1240,23 @@
       <c r="A8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="32"/>
+      <c r="B8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="36"/>
       <c r="G8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="23"/>
+      <c r="H8" s="23" t="s">
+        <v>44</v>
+      </c>
       <c r="I8" s="24">
         <v>44040</v>
       </c>
@@ -1053,12 +1358,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C6:D6"/>
@@ -1069,6 +1368,12 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
